--- a/collusion_1980_2000.xlsx
+++ b/collusion_1980_2000.xlsx
@@ -65,11 +65,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -86,8 +87,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +105,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A65D"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF37B70"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,6 +170,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,6 +198,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFF37B70"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A65D"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -168,12 +269,13 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,7 +310,7 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -220,143 +322,252 @@
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="J2" s="0" t="n">
-        <v>-0.85</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="1"/>
-      <c r="G3" s="0" t="n">
-        <v>-0.9285</v>
-      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="n">
+        <v>0.9285</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="1"/>
-      <c r="H4" s="0" t="n">
-        <v>0.1818</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>-0.2941</v>
-      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.1818</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="0" t="n">
-        <v>0.2777</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.2777</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
-      <c r="I6" s="0" t="n">
-        <v>0.2777</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0.3684</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6" t="n">
+        <v>-0.2777</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6" t="n">
+        <v>-0.3684</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>-1.357</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0.1818</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.1818</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
-      <c r="K8" s="0" t="n">
-        <v>-0.0769</v>
-      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0.4444</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.2777</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="n">
+        <v>-0.4444</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.2777</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="0" t="n">
-        <v>0.2222</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>0.1578</v>
-      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.2222</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.1578</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.1428</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0.5555</v>
+      <c r="B10" s="6" t="n">
+        <v>-0.1428</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.5555</v>
       </c>
       <c r="J10" s="1"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>-0.0588</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0.1578</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0.0769</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0.2631</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="n">
+        <v>-0.1578</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.0769</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2631</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="0" t="n">
-        <v>0.3</v>
+      <c r="L11" s="4"/>
+      <c r="M11" s="6" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="0" t="n">
-        <v>-0.0555</v>
+      <c r="M12" s="5" t="n">
+        <v>0.0555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0.2777</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="6" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2777</v>
+      </c>
+      <c r="M13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
